--- a/_PETRO/classificated_counts.xlsx
+++ b/_PETRO/classificated_counts.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,120 +376,230 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>magnesian-calc-alkalic-peraluminous</t>
+          <t>magnesian/calc-alkalic/peraluminous</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>magnesian-alkali-calcic-peraluminous</t>
+          <t>magnesian/calc-alkalic/metaluminous</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ferroan-calc-alkalic-peraluminous</t>
+          <t>ferroan/calc-alkalic/peraluminous</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ferroan-alkali-calcic-peraluminous</t>
+          <t>magnesian/alkali-calcic/peraluminous</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>613</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>magnesian-calcic-peraluminous</t>
+          <t>ferroan/alkali-calcic/peraluminous</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>magnesian-alkalic-peraluminous</t>
+          <t>magnesian/calcic/peraluminous</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ferroan-calcic-peraluminous</t>
+          <t>magnesian/alkali-calcic/metaluminous</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>139</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ferroan-alkalic-peraluminous</t>
+          <t>magnesian/calcic/metaluminous</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>magnesian-alkalic-peralkaline</t>
+          <t>ferroan/alkali-calcic/metaluminous</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>magnesian-alkali-calcic-peralkaline</t>
+          <t>ferroan/calcic/peraluminous</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ferroan-calc-alkalic-peralkaline</t>
+          <t>ferroan/calc-alkalic/metaluminous</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>magnesian-calc-alkalic-peralkaline</t>
+          <t>magnesian/alkalic/metaluminous</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>magnesian/alkalic/peraluminous</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/alkalic/peraluminous</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/alkalic/metaluminous</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/alkali-calcic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>magnesian/alkali-calcic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/alkalic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/calcic/metaluminous</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>magnesian/alkalic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ferroan/calc-alkalic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>magnesian/calc-alkalic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>magnesian/calcic/peralkaline</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
